--- a/(已处理)红太阳光电物料业务数据维护申请报表-20230620122601.xlsx
+++ b/(已处理)红太阳光电物料业务数据维护申请报表-20230620122601.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L-PWDocument\Downloads\1-python\PythonWorkspace\mergeViewXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\PythonWorkSpace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D2496E0-9907-4BD3-AD3B-975761963424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9C1D66-4DAF-4A25-973D-424A77358C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -674,12 +674,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="67" width="23.5" customWidth="1"/>
+    <col min="1" max="67" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -882,7 +882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>

--- a/(已处理)红太阳光电物料业务数据维护申请报表-20230620122601.xlsx
+++ b/(已处理)红太阳光电物料业务数据维护申请报表-20230620122601.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\PythonWorkSpace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9C1D66-4DAF-4A25-973D-424A77358C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9502298E-6D74-47FB-BDE8-D03B632226FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3972" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
   <si>
     <t>物料类型</t>
   </si>
@@ -253,6 +254,9 @@
     <t xml:space="preserve">          </t>
   </si>
   <si>
+    <t>10-归档</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
@@ -308,6 +312,12 @@
   </si>
   <si>
     <t>，5*20</t>
+  </si>
+  <si>
+    <t>物料业务数据维护申请-2023-06-27 15:08:16</t>
+  </si>
+  <si>
+    <t>序号</t>
   </si>
 </sst>
 </file>
@@ -670,230 +680,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO2"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
+      <selection activeCell="BQ3" sqref="BQ3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="67" width="23.44140625" customWidth="1"/>
+    <col min="2" max="68" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" t="s">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" t="s">
+        <v>79</v>
+      </c>
+      <c r="X2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B981D2CC-7E96-4214-AE32-C64FC94C5AD7}">
+  <dimension ref="A2:BQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -902,16 +1138,16 @@
         <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
         <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K2" t="s">
         <v>67</v>
@@ -920,7 +1156,7 @@
         <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" t="s">
         <v>67</v>
@@ -935,10 +1171,10 @@
         <v>70</v>
       </c>
       <c r="R2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="T2" t="s">
         <v>67</v>
@@ -947,46 +1183,46 @@
         <v>67</v>
       </c>
       <c r="V2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA2" t="s">
         <v>78</v>
-      </c>
-      <c r="W2" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>77</v>
       </c>
       <c r="AB2" t="s">
         <v>70</v>
       </c>
       <c r="AC2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE2" t="s">
         <v>67</v>
       </c>
       <c r="AF2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AJ2" t="s">
         <v>67</v>
@@ -1019,7 +1255,7 @@
         <v>70</v>
       </c>
       <c r="AT2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AU2" t="s">
         <v>67</v>
@@ -1028,10 +1264,10 @@
         <v>67</v>
       </c>
       <c r="AW2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AX2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AY2" t="s">
         <v>68</v>
@@ -1083,6 +1319,12 @@
       </c>
       <c r="BO2" t="s">
         <v>67</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/(已处理)红太阳光电物料业务数据维护申请报表-20230620122601.xlsx
+++ b/(已处理)红太阳光电物料业务数据维护申请报表-20230620122601.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkSpaces\PythonWorkSpace\mergeViewXlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L-PWDocument\Downloads\1-python\PythonWorkspace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9502298E-6D74-47FB-BDE8-D03B632226FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91D6324-5529-4B7A-B64D-C11B604A654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3972" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -682,16 +682,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BQ3" sqref="BQ3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="68" width="23.44140625" customWidth="1"/>
+    <col min="2" max="68" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -897,7 +895,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1111,14 +1109,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B981D2CC-7E96-4214-AE32-C64FC94C5AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C886FE-019E-415D-BE7F-E78A9319CF9E}">
   <dimension ref="A2:BQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>92</v>
       </c>

--- a/(已处理)红太阳光电物料业务数据维护申请报表-20230620122601.xlsx
+++ b/(已处理)红太阳光电物料业务数据维护申请报表-20230620122601.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L-PWDocument\Downloads\1-python\PythonWorkspace\mergeViewXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A91D6324-5529-4B7A-B64D-C11B604A654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9174B1C8-7E4E-4860-9897-077466794133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="98">
   <si>
     <t>物料类型</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>PD物料需求计划</t>
-  </si>
-  <si>
-    <t>A05</t>
   </si>
   <si>
     <t>EX</t>
@@ -691,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -900,34 +897,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>69</v>
       </c>
       <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
         <v>93</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
         <v>94</v>
       </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" t="s">
         <v>95</v>
-      </c>
-      <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>96</v>
       </c>
       <c r="L2" t="s">
         <v>67</v>
@@ -996,13 +993,13 @@
         <v>87</v>
       </c>
       <c r="AH2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI2" t="s">
         <v>88</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>89</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>90</v>
       </c>
       <c r="AK2" t="s">
         <v>67</v>
@@ -1035,7 +1032,7 @@
         <v>70</v>
       </c>
       <c r="AU2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AV2" t="s">
         <v>67</v>
@@ -1109,7 +1106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C886FE-019E-415D-BE7F-E78A9319CF9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B177798-760F-4A3E-A186-764CB7F4E761}">
   <dimension ref="A2:BQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1118,34 +1115,34 @@
   <sheetData>
     <row r="2" spans="1:69" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
       </c>
       <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
         <v>93</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" t="s">
         <v>95</v>
-      </c>
-      <c r="H2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>96</v>
       </c>
       <c r="K2" t="s">
         <v>67</v>
@@ -1214,13 +1211,13 @@
         <v>87</v>
       </c>
       <c r="AG2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH2" t="s">
         <v>88</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>89</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>90</v>
       </c>
       <c r="AJ2" t="s">
         <v>67</v>
@@ -1253,7 +1250,7 @@
         <v>70</v>
       </c>
       <c r="AT2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AU2" t="s">
         <v>67</v>
@@ -1322,7 +1319,7 @@
         <v>77</v>
       </c>
       <c r="BQ2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
